--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/因卓教育权限配置表/因卓教育阶段一用户权限处理.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/因卓教育权限配置表/因卓教育阶段一用户权限处理.xlsx
@@ -2171,7 +2171,7 @@
   <dimension ref="B3:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G3" sqref="G3:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2344,10 +2344,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
